--- a/ProjectDocs/Artifacts/Test Cases.xlsx
+++ b/ProjectDocs/Artifacts/Test Cases.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>Test Cases</t>
   </si>
   <si>
-    <t>Test case id</t>
+    <t>User Story ID</t>
   </si>
   <si>
     <t>Unit to test</t>
@@ -43,7 +43,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>DCST - 1</t>
+    <t>DCS - 12</t>
   </si>
   <si>
     <t>Login</t>
@@ -90,9 +90,6 @@
     <t>Check results on entering valid User Id &amp; Password</t>
   </si>
   <si>
-    <t>DCST - 2</t>
-  </si>
-  <si>
     <t>It should show an error as "Invalid Username or Password"</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Check results on entering Invalid User ID &amp; Password</t>
   </si>
   <si>
-    <t>DCST - 3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -169,7 +163,7 @@
     <t>Check response when a User ID is Empty &amp; Login Button is pressed</t>
   </si>
   <si>
-    <t>DCST - 4</t>
+    <t>DCS - 13</t>
   </si>
   <si>
     <t>Sign Up</t>
@@ -213,9 +207,6 @@
     <t>Homepage -&gt; Sign Up</t>
   </si>
   <si>
-    <t>DCST - 5</t>
-  </si>
-  <si>
     <t>It should show an error as "Username already in use"</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
   </si>
   <si>
     <t>Check results on entering Already in Used User ID</t>
-  </si>
-  <si>
-    <t>DCST - 6</t>
   </si>
   <si>
     <t>It should show an error as "Enter the Password with given parameters"</t>
@@ -295,7 +283,212 @@
     <t>Check response when a Password is containing all the given parameters</t>
   </si>
   <si>
-    <t>DCST - 7</t>
+    <t>DCS - 49</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Profile creation should be successful</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - test@easyway.com, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - test</t>
+    </r>
+  </si>
+  <si>
+    <t>Homepage-&gt; Login-&gt; Profile</t>
+  </si>
+  <si>
+    <t>Check all the details filled with valid zip codes and phone numbers.</t>
+  </si>
+  <si>
+    <t>Show an error with missing fields</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> -  , </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - test</t>
+    </r>
+  </si>
+  <si>
+    <t>Check to missing/mandatory fields*</t>
+  </si>
+  <si>
+    <t>DCS - 18</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Services should be categorize and listed</t>
+  </si>
+  <si>
+    <t>Check if the categories are correct</t>
+  </si>
+  <si>
+    <t>DCS - 24</t>
+  </si>
+  <si>
+    <t>Customer should be able to search the desired services on search box</t>
+  </si>
+  <si>
+    <t>Homepage-&gt; Search box</t>
+  </si>
+  <si>
+    <t>Homepage must provide the search box for user to search for desired services.</t>
+  </si>
+  <si>
+    <t>DCS - 48</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Display service catalog</t>
+  </si>
+  <si>
+    <t>db.getCollection("catalog").find({});</t>
+  </si>
+  <si>
+    <t>MongoDB -&gt; use Easyway</t>
+  </si>
+  <si>
+    <t>DCS - 51</t>
+  </si>
+  <si>
+    <t>Professionals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display list of professional </t>
+  </si>
+  <si>
+    <t>db.getCollection("professional").find({});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>Insert a customer</t>
+  </si>
+  <si>
+    <t>db.customer.insert({name:"customerName",customerEmail:customer@test.com, customerPassword:12345678, customerPassword2:12345678})</t>
+  </si>
+  <si>
+    <t>Create a new user in customer database</t>
+  </si>
+  <si>
+    <t>Display all the customers</t>
+  </si>
+  <si>
+    <t>db.getCollection("customers").find({});</t>
+  </si>
+  <si>
+    <t>Customers should be able to access the homepage</t>
+  </si>
+  <si>
+    <t>localhost:8080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once directed with url, you will be first redirected to homepage. </t>
+  </si>
+  <si>
+    <t>DCS</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer can interact and receive a response. </t>
+  </si>
+  <si>
+    <t>Homepage-&gt; Login-&gt; Book an Appointment-&gt; Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One the chat started both customers and professional can chat in it. </t>
+  </si>
+  <si>
+    <t>Customer should be able to book appointment just by interaction and chatting with the chatbot</t>
+  </si>
+  <si>
+    <t>Homepage-&gt; Chatbot</t>
+  </si>
+  <si>
+    <t>Homepage must provide the chatbot to clear all queries</t>
+  </si>
+  <si>
+    <t>History displayed in search field should be relevant to logged in user only</t>
+  </si>
+  <si>
+    <t>Search box on Homepage must display relevant information previously searched by the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCS </t>
+  </si>
+  <si>
+    <t>Dummy Data</t>
+  </si>
+  <si>
+    <t>Display all collections</t>
+  </si>
+  <si>
+    <t>show collections</t>
+  </si>
+  <si>
+    <t>All tables should be listed</t>
   </si>
   <si>
     <t>Forgot password</t>
@@ -310,45 +503,6 @@
     <t>Password Reset and directed to login page again</t>
   </si>
   <si>
-    <t>DCST - 8</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Profile creation should be successful</t>
-  </si>
-  <si>
-    <t>Homepage-&gt; Login-&gt; Profile</t>
-  </si>
-  <si>
-    <t>Check all the details filled with valid zip codes and phone numbers.</t>
-  </si>
-  <si>
-    <t>DCST - 9</t>
-  </si>
-  <si>
-    <t>Show an error with missing fields</t>
-  </si>
-  <si>
-    <t>Check to missing/mandatory fields*</t>
-  </si>
-  <si>
-    <t>DCST - 10</t>
-  </si>
-  <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>Services should be categorize and listed</t>
-  </si>
-  <si>
-    <t>Check if the categories are correct</t>
-  </si>
-  <si>
-    <t>DCST - 11</t>
-  </si>
-  <si>
     <t>Service Page</t>
   </si>
   <si>
@@ -360,72 +514,12 @@
   <si>
     <t>Check if the results after correctly filtered</t>
   </si>
-  <si>
-    <t>DCST - 12</t>
-  </si>
-  <si>
-    <t>Customers should be able to access the homepage</t>
-  </si>
-  <si>
-    <t>easyway.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once directed with url, you will be first redirected to homepage. </t>
-  </si>
-  <si>
-    <t>DCST - 13</t>
-  </si>
-  <si>
-    <t>Chatbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer can interact and receive a response. </t>
-  </si>
-  <si>
-    <t>Homepage-&gt; Login-&gt; Book an Appointment-&gt; Chat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One the chat started both customers and professional can chat in it. </t>
-  </si>
-  <si>
-    <t>DCST - 14</t>
-  </si>
-  <si>
-    <t>Customer should be able to book appointment just by interaction and chatting with the chatbot</t>
-  </si>
-  <si>
-    <t>Homepage-&gt; Chatbot</t>
-  </si>
-  <si>
-    <t>Homepage must provide the chatbot to clear all queries</t>
-  </si>
-  <si>
-    <t>DCST - 15</t>
-  </si>
-  <si>
-    <t>Customer should be able to search the desired services on search box</t>
-  </si>
-  <si>
-    <t>Homepage-&gt; Search box</t>
-  </si>
-  <si>
-    <t>Homepage must provide the search box for user to search for desired services.</t>
-  </si>
-  <si>
-    <t>DCST - 16</t>
-  </si>
-  <si>
-    <t>History displayed in search field should be relevant to logged in user only</t>
-  </si>
-  <si>
-    <t>Search box on Homepage must display relevant information previously searched by the user.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -450,10 +544,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -555,17 +645,17 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +671,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5524500" cy="3381375"/>
     <xdr:pic>
@@ -806,6 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -813,8 +904,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="13.13"/>
-    <col customWidth="1" min="3" max="3" width="68.5"/>
-    <col customWidth="1" min="4" max="4" width="43.0"/>
+    <col customWidth="1" min="3" max="3" width="52.88"/>
+    <col customWidth="1" min="4" max="4" width="44.0"/>
     <col customWidth="1" min="5" max="5" width="37.75"/>
     <col customWidth="1" min="6" max="6" width="67.88"/>
   </cols>
@@ -937,22 +1028,22 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -977,22 +1068,22 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1017,19 +1108,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>15</v>
@@ -1057,22 +1148,22 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1097,22 +1188,22 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1137,20 +1228,22 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1175,20 +1268,22 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1213,20 +1308,20 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1251,20 +1346,20 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1289,174 +1384,176 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>60</v>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>68</v>
+      <c r="E16" s="6" t="s">
+        <v>53</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1481,24 +1578,24 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>76</v>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1518,172 +1615,224 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
+      <c r="A19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
+      <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
+      <c r="A23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
@@ -28705,293 +28854,13 @@
       <c r="Y989" s="4"/>
       <c r="Z989" s="4"/>
     </row>
-    <row r="990">
-      <c r="A990" s="4"/>
-      <c r="B990" s="4"/>
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="4"/>
-      <c r="H990" s="4"/>
-      <c r="I990" s="4"/>
-      <c r="J990" s="4"/>
-      <c r="K990" s="4"/>
-      <c r="L990" s="4"/>
-      <c r="M990" s="4"/>
-      <c r="N990" s="4"/>
-      <c r="O990" s="4"/>
-      <c r="P990" s="4"/>
-      <c r="Q990" s="4"/>
-      <c r="R990" s="4"/>
-      <c r="S990" s="4"/>
-      <c r="T990" s="4"/>
-      <c r="U990" s="4"/>
-      <c r="V990" s="4"/>
-      <c r="W990" s="4"/>
-      <c r="X990" s="4"/>
-      <c r="Y990" s="4"/>
-      <c r="Z990" s="4"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="4"/>
-      <c r="B991" s="4"/>
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-      <c r="H991" s="4"/>
-      <c r="I991" s="4"/>
-      <c r="J991" s="4"/>
-      <c r="K991" s="4"/>
-      <c r="L991" s="4"/>
-      <c r="M991" s="4"/>
-      <c r="N991" s="4"/>
-      <c r="O991" s="4"/>
-      <c r="P991" s="4"/>
-      <c r="Q991" s="4"/>
-      <c r="R991" s="4"/>
-      <c r="S991" s="4"/>
-      <c r="T991" s="4"/>
-      <c r="U991" s="4"/>
-      <c r="V991" s="4"/>
-      <c r="W991" s="4"/>
-      <c r="X991" s="4"/>
-      <c r="Y991" s="4"/>
-      <c r="Z991" s="4"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="4"/>
-      <c r="B992" s="4"/>
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="4"/>
-      <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
-      <c r="J992" s="4"/>
-      <c r="K992" s="4"/>
-      <c r="L992" s="4"/>
-      <c r="M992" s="4"/>
-      <c r="N992" s="4"/>
-      <c r="O992" s="4"/>
-      <c r="P992" s="4"/>
-      <c r="Q992" s="4"/>
-      <c r="R992" s="4"/>
-      <c r="S992" s="4"/>
-      <c r="T992" s="4"/>
-      <c r="U992" s="4"/>
-      <c r="V992" s="4"/>
-      <c r="W992" s="4"/>
-      <c r="X992" s="4"/>
-      <c r="Y992" s="4"/>
-      <c r="Z992" s="4"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="4"/>
-      <c r="B993" s="4"/>
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
-      <c r="E993" s="4"/>
-      <c r="F993" s="4"/>
-      <c r="G993" s="4"/>
-      <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
-      <c r="J993" s="4"/>
-      <c r="K993" s="4"/>
-      <c r="L993" s="4"/>
-      <c r="M993" s="4"/>
-      <c r="N993" s="4"/>
-      <c r="O993" s="4"/>
-      <c r="P993" s="4"/>
-      <c r="Q993" s="4"/>
-      <c r="R993" s="4"/>
-      <c r="S993" s="4"/>
-      <c r="T993" s="4"/>
-      <c r="U993" s="4"/>
-      <c r="V993" s="4"/>
-      <c r="W993" s="4"/>
-      <c r="X993" s="4"/>
-      <c r="Y993" s="4"/>
-      <c r="Z993" s="4"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="4"/>
-      <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="4"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="4"/>
-      <c r="H994" s="4"/>
-      <c r="I994" s="4"/>
-      <c r="J994" s="4"/>
-      <c r="K994" s="4"/>
-      <c r="L994" s="4"/>
-      <c r="M994" s="4"/>
-      <c r="N994" s="4"/>
-      <c r="O994" s="4"/>
-      <c r="P994" s="4"/>
-      <c r="Q994" s="4"/>
-      <c r="R994" s="4"/>
-      <c r="S994" s="4"/>
-      <c r="T994" s="4"/>
-      <c r="U994" s="4"/>
-      <c r="V994" s="4"/>
-      <c r="W994" s="4"/>
-      <c r="X994" s="4"/>
-      <c r="Y994" s="4"/>
-      <c r="Z994" s="4"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="4"/>
-      <c r="B995" s="4"/>
-      <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
-      <c r="E995" s="4"/>
-      <c r="F995" s="4"/>
-      <c r="G995" s="4"/>
-      <c r="H995" s="4"/>
-      <c r="I995" s="4"/>
-      <c r="J995" s="4"/>
-      <c r="K995" s="4"/>
-      <c r="L995" s="4"/>
-      <c r="M995" s="4"/>
-      <c r="N995" s="4"/>
-      <c r="O995" s="4"/>
-      <c r="P995" s="4"/>
-      <c r="Q995" s="4"/>
-      <c r="R995" s="4"/>
-      <c r="S995" s="4"/>
-      <c r="T995" s="4"/>
-      <c r="U995" s="4"/>
-      <c r="V995" s="4"/>
-      <c r="W995" s="4"/>
-      <c r="X995" s="4"/>
-      <c r="Y995" s="4"/>
-      <c r="Z995" s="4"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="4"/>
-      <c r="B996" s="4"/>
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
-      <c r="G996" s="4"/>
-      <c r="H996" s="4"/>
-      <c r="I996" s="4"/>
-      <c r="J996" s="4"/>
-      <c r="K996" s="4"/>
-      <c r="L996" s="4"/>
-      <c r="M996" s="4"/>
-      <c r="N996" s="4"/>
-      <c r="O996" s="4"/>
-      <c r="P996" s="4"/>
-      <c r="Q996" s="4"/>
-      <c r="R996" s="4"/>
-      <c r="S996" s="4"/>
-      <c r="T996" s="4"/>
-      <c r="U996" s="4"/>
-      <c r="V996" s="4"/>
-      <c r="W996" s="4"/>
-      <c r="X996" s="4"/>
-      <c r="Y996" s="4"/>
-      <c r="Z996" s="4"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="4"/>
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
-      <c r="K997" s="4"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-      <c r="Z997" s="4"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="4"/>
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
-      <c r="K998" s="4"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="4"/>
-      <c r="N998" s="4"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="4"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-      <c r="Z998" s="4"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="4"/>
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="4"/>
-      <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
-      <c r="J999" s="4"/>
-      <c r="K999" s="4"/>
-      <c r="L999" s="4"/>
-      <c r="M999" s="4"/>
-      <c r="N999" s="4"/>
-      <c r="O999" s="4"/>
-      <c r="P999" s="4"/>
-      <c r="Q999" s="4"/>
-      <c r="R999" s="4"/>
-      <c r="S999" s="4"/>
-      <c r="T999" s="4"/>
-      <c r="U999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="W999" s="4"/>
-      <c r="X999" s="4"/>
-      <c r="Y999" s="4"/>
-      <c r="Z999" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D14"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>